--- a/macroalgae-2021.xlsx
+++ b/macroalgae-2021.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2c91183bf4ae5ea/Desktop/CapstoneDataAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23FF4A57-2FB7-4F5E-B7F8-9A1EEB761DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{23FF4A57-2FB7-4F5E-B7F8-9A1EEB761DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583952AA-715E-4874-BAF2-40C3F16C8119}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="-100" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="algae_cover" sheetId="3" r:id="rId2"/>
     <sheet name="floating" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">algae_cover!$A$1:$AB$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1546,7 +1549,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1928,9 +1931,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2010,7 +2013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2063,7 +2066,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2328,7 +2331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2381,7 +2384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2743,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2893,7 +2896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2946,7 +2949,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -3211,7 +3214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -3476,7 +3479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -3529,7 +3532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -3741,7 +3744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3791,7 +3794,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3891,7 +3894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -3944,7 +3947,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -4103,7 +4106,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -4156,7 +4159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -4209,7 +4212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4262,7 +4265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -4315,7 +4318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -4415,7 +4418,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -4465,7 +4468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -4518,7 +4521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -4571,7 +4574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -4621,7 +4624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -4730,41 +4733,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762799D3-A3BB-4F91-B6AA-AB9272067784}">
   <dimension ref="A1:AB373"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7265625" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" customWidth="1"/>
+    <col min="17" max="17" width="16.7265625" customWidth="1"/>
+    <col min="18" max="18" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4850,7 +4853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -5099,7 +5102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -5431,7 +5434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -5514,7 +5517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -5597,7 +5600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -6344,7 +6347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -6676,7 +6679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -6759,7 +6762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -7008,7 +7011,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -7091,7 +7094,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -7423,7 +7426,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>26</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -7838,7 +7841,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>26</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -8170,7 +8173,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>26</v>
       </c>
@@ -8253,7 +8256,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="10.5" customHeight="1">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -8419,7 +8422,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" hidden="1">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -8499,7 +8502,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -8579,7 +8582,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -8819,7 +8822,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -8979,7 +8982,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
         <v>26</v>
       </c>
@@ -9059,7 +9062,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -9139,7 +9142,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -9779,7 +9782,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
         <v>26</v>
       </c>
@@ -9939,7 +9942,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
         <v>26</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
         <v>26</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
         <v>26</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
         <v>26</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
         <v>26</v>
       </c>
@@ -10419,7 +10422,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
         <v>26</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
         <v>26</v>
       </c>
@@ -10579,7 +10582,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
         <v>26</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
         <v>26</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
         <v>26</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -10899,7 +10902,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
         <v>26</v>
       </c>
@@ -10979,7 +10982,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
         <v>26</v>
       </c>
@@ -11059,7 +11062,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
         <v>26</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
         <v>26</v>
       </c>
@@ -11302,7 +11305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
         <v>26</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
         <v>26</v>
       </c>
@@ -11468,7 +11471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
         <v>26</v>
       </c>
@@ -11551,7 +11554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -11634,7 +11637,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
         <v>26</v>
       </c>
@@ -11717,7 +11720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
         <v>26</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
         <v>26</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
         <v>26</v>
       </c>
@@ -11966,7 +11969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
         <v>26</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -12132,7 +12135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -12215,7 +12218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
         <v>26</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -12381,7 +12384,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>26</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
         <v>26</v>
       </c>
@@ -12547,7 +12550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
         <v>26</v>
       </c>
@@ -12630,7 +12633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
         <v>26</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
         <v>26</v>
       </c>
@@ -12796,7 +12799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
         <v>26</v>
       </c>
@@ -12879,7 +12882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
         <v>26</v>
       </c>
@@ -12962,7 +12965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -13128,7 +13131,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
         <v>26</v>
       </c>
@@ -13211,7 +13214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -13294,7 +13297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -13377,7 +13380,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -13460,7 +13463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -13543,7 +13546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -13626,7 +13629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -13709,7 +13712,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
         <v>26</v>
       </c>
@@ -13792,7 +13795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -13875,7 +13878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -13958,7 +13961,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27">
       <c r="A113" t="s">
         <v>26</v>
       </c>
@@ -14041,7 +14044,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27">
       <c r="A114" t="s">
         <v>26</v>
       </c>
@@ -14124,7 +14127,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -14290,7 +14293,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -14373,7 +14376,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -14456,7 +14459,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
         <v>26</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27">
       <c r="A122" t="s">
         <v>26</v>
       </c>
@@ -14788,7 +14791,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -14871,7 +14874,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -14954,7 +14957,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -15037,7 +15040,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -15120,7 +15123,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -15203,7 +15206,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -15286,7 +15289,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -15369,7 +15372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -15535,7 +15538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -15615,7 +15618,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -15695,7 +15698,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -15775,7 +15778,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -15855,7 +15858,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -15935,7 +15938,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -16015,7 +16018,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -16095,7 +16098,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -16175,7 +16178,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -16255,7 +16258,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -16335,7 +16338,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -16495,7 +16498,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -16575,7 +16578,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -16655,7 +16658,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -16815,7 +16818,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -16895,7 +16898,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -16975,7 +16978,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -17055,7 +17058,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -17221,7 +17224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -17304,7 +17307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -17387,7 +17390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -17467,7 +17470,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -17547,7 +17550,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -17627,7 +17630,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -17707,7 +17710,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -17787,7 +17790,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -17867,7 +17870,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27">
       <c r="A161" t="s">
         <v>26</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27">
       <c r="A162" t="s">
         <v>26</v>
       </c>
@@ -18027,7 +18030,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27">
       <c r="A163" t="s">
         <v>26</v>
       </c>
@@ -18107,7 +18110,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -18187,7 +18190,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27">
       <c r="A165" t="s">
         <v>26</v>
       </c>
@@ -18267,7 +18270,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27">
       <c r="A166" t="s">
         <v>26</v>
       </c>
@@ -18347,7 +18350,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27">
       <c r="A167" t="s">
         <v>26</v>
       </c>
@@ -18427,7 +18430,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27">
       <c r="A168" t="s">
         <v>26</v>
       </c>
@@ -18507,7 +18510,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27">
       <c r="A169" t="s">
         <v>26</v>
       </c>
@@ -18587,7 +18590,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27">
       <c r="A170" t="s">
         <v>26</v>
       </c>
@@ -18667,7 +18670,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27">
       <c r="A171" t="s">
         <v>26</v>
       </c>
@@ -18747,7 +18750,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27">
       <c r="A172" t="s">
         <v>26</v>
       </c>
@@ -18827,7 +18830,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27">
       <c r="A173" t="s">
         <v>26</v>
       </c>
@@ -18907,7 +18910,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27">
       <c r="A174" t="s">
         <v>26</v>
       </c>
@@ -18987,7 +18990,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27">
       <c r="A176" t="s">
         <v>26</v>
       </c>
@@ -19147,7 +19150,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27">
       <c r="A177" t="s">
         <v>26</v>
       </c>
@@ -19227,7 +19230,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -19307,7 +19310,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27">
       <c r="A179" t="s">
         <v>26</v>
       </c>
@@ -19387,7 +19390,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27">
       <c r="A180" t="s">
         <v>26</v>
       </c>
@@ -19467,7 +19470,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -19547,7 +19550,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27">
       <c r="A182" t="s">
         <v>26</v>
       </c>
@@ -19627,7 +19630,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27">
       <c r="A183" t="s">
         <v>26</v>
       </c>
@@ -19710,7 +19713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27">
       <c r="A184" t="s">
         <v>26</v>
       </c>
@@ -19793,7 +19796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27">
       <c r="A185" t="s">
         <v>26</v>
       </c>
@@ -19876,7 +19879,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27">
       <c r="A186" t="s">
         <v>26</v>
       </c>
@@ -19959,7 +19962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27">
       <c r="A187" t="s">
         <v>26</v>
       </c>
@@ -20042,7 +20045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27">
       <c r="A188" t="s">
         <v>26</v>
       </c>
@@ -20125,7 +20128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27">
       <c r="A189" t="s">
         <v>26</v>
       </c>
@@ -20208,7 +20211,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27">
       <c r="A190" t="s">
         <v>26</v>
       </c>
@@ -20291,7 +20294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27">
       <c r="A191" t="s">
         <v>26</v>
       </c>
@@ -20374,7 +20377,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27">
       <c r="A192" t="s">
         <v>26</v>
       </c>
@@ -20457,7 +20460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27">
       <c r="A193" t="s">
         <v>26</v>
       </c>
@@ -20540,7 +20543,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27">
       <c r="A194" t="s">
         <v>26</v>
       </c>
@@ -20623,7 +20626,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27">
       <c r="A195" t="s">
         <v>26</v>
       </c>
@@ -20706,7 +20709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27">
       <c r="A196" t="s">
         <v>26</v>
       </c>
@@ -20789,7 +20792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27">
       <c r="A197" t="s">
         <v>26</v>
       </c>
@@ -20872,7 +20875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -20955,7 +20958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27">
       <c r="A199" t="s">
         <v>26</v>
       </c>
@@ -21035,7 +21038,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27">
       <c r="A200" t="s">
         <v>26</v>
       </c>
@@ -21115,7 +21118,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -21195,7 +21198,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27">
       <c r="A202" t="s">
         <v>26</v>
       </c>
@@ -21275,7 +21278,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -21355,7 +21358,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27">
       <c r="A204" t="s">
         <v>26</v>
       </c>
@@ -21435,7 +21438,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -21515,7 +21518,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -21595,7 +21598,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -21675,7 +21678,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -21755,7 +21758,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -21835,7 +21838,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -21915,7 +21918,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -21995,7 +21998,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -22075,7 +22078,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -22155,7 +22158,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -22235,7 +22238,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -22315,7 +22318,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -22395,7 +22398,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -22475,7 +22478,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27">
       <c r="A218" t="s">
         <v>26</v>
       </c>
@@ -22555,7 +22558,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27">
       <c r="A219" t="s">
         <v>26</v>
       </c>
@@ -22635,7 +22638,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27">
       <c r="A220" t="s">
         <v>26</v>
       </c>
@@ -22715,7 +22718,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27">
       <c r="A221" t="s">
         <v>26</v>
       </c>
@@ -22795,7 +22798,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27">
       <c r="A222" t="s">
         <v>26</v>
       </c>
@@ -22875,7 +22878,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27">
       <c r="A223" t="s">
         <v>26</v>
       </c>
@@ -22955,7 +22958,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27">
       <c r="A224" t="s">
         <v>26</v>
       </c>
@@ -23035,7 +23038,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -23115,7 +23118,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27">
       <c r="A226" t="s">
         <v>26</v>
       </c>
@@ -23198,7 +23201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27">
       <c r="A227" t="s">
         <v>26</v>
       </c>
@@ -23281,7 +23284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27">
       <c r="A228" t="s">
         <v>26</v>
       </c>
@@ -23364,7 +23367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27">
       <c r="A229" t="s">
         <v>26</v>
       </c>
@@ -23447,7 +23450,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -23530,7 +23533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -23610,7 +23613,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27">
       <c r="A232" t="s">
         <v>26</v>
       </c>
@@ -23690,7 +23693,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27">
       <c r="A233" t="s">
         <v>26</v>
       </c>
@@ -23770,7 +23773,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27">
       <c r="A234" t="s">
         <v>26</v>
       </c>
@@ -23850,7 +23853,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27">
       <c r="A235" t="s">
         <v>26</v>
       </c>
@@ -23930,7 +23933,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27">
       <c r="A236" t="s">
         <v>26</v>
       </c>
@@ -24010,7 +24013,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27">
       <c r="A237" t="s">
         <v>26</v>
       </c>
@@ -24090,7 +24093,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -24170,7 +24173,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27">
       <c r="A239" t="s">
         <v>26</v>
       </c>
@@ -24250,7 +24253,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27">
       <c r="A240" t="s">
         <v>26</v>
       </c>
@@ -24330,7 +24333,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27">
       <c r="A241" t="s">
         <v>26</v>
       </c>
@@ -24410,7 +24413,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27">
       <c r="A242" t="s">
         <v>26</v>
       </c>
@@ -24490,7 +24493,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27">
       <c r="A243" t="s">
         <v>26</v>
       </c>
@@ -24573,7 +24576,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -24656,7 +24659,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27">
       <c r="A245" t="s">
         <v>26</v>
       </c>
@@ -24736,7 +24739,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27">
       <c r="A246" t="s">
         <v>26</v>
       </c>
@@ -24816,7 +24819,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27">
       <c r="A247" t="s">
         <v>26</v>
       </c>
@@ -24896,7 +24899,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27">
       <c r="A248" t="s">
         <v>26</v>
       </c>
@@ -24976,7 +24979,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -25056,7 +25059,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -25136,7 +25139,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27">
       <c r="A251" t="s">
         <v>26</v>
       </c>
@@ -25216,7 +25219,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27">
       <c r="A252" t="s">
         <v>26</v>
       </c>
@@ -25296,7 +25299,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27">
       <c r="A253" t="s">
         <v>26</v>
       </c>
@@ -25376,7 +25379,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27">
       <c r="A254" t="s">
         <v>26</v>
       </c>
@@ -25456,7 +25459,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27">
       <c r="A255" t="s">
         <v>26</v>
       </c>
@@ -25536,7 +25539,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27">
       <c r="A256" t="s">
         <v>26</v>
       </c>
@@ -25616,7 +25619,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -25696,7 +25699,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -25776,7 +25779,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -25856,7 +25859,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -25936,7 +25939,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -26016,7 +26019,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27">
       <c r="A262" t="s">
         <v>26</v>
       </c>
@@ -26096,7 +26099,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27">
       <c r="A263" t="s">
         <v>26</v>
       </c>
@@ -26176,7 +26179,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -26256,7 +26259,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27">
       <c r="A265" t="s">
         <v>26</v>
       </c>
@@ -26336,7 +26339,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27">
       <c r="A266" t="s">
         <v>26</v>
       </c>
@@ -26416,7 +26419,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27">
       <c r="A267" t="s">
         <v>26</v>
       </c>
@@ -26496,7 +26499,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -26576,7 +26579,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -26656,7 +26659,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27">
       <c r="A270" t="s">
         <v>26</v>
       </c>
@@ -26736,7 +26739,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27">
       <c r="A271" t="s">
         <v>26</v>
       </c>
@@ -26816,7 +26819,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27">
       <c r="A272" t="s">
         <v>26</v>
       </c>
@@ -26896,7 +26899,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27">
       <c r="A273" t="s">
         <v>26</v>
       </c>
@@ -26976,7 +26979,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27">
       <c r="A274" t="s">
         <v>26</v>
       </c>
@@ -27056,7 +27059,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -27136,7 +27139,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27">
       <c r="A276" t="s">
         <v>26</v>
       </c>
@@ -27216,7 +27219,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -27296,7 +27299,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27">
       <c r="A278" t="s">
         <v>26</v>
       </c>
@@ -27376,7 +27379,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27">
       <c r="A279" t="s">
         <v>26</v>
       </c>
@@ -27456,7 +27459,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27">
       <c r="A280" t="s">
         <v>26</v>
       </c>
@@ -27536,7 +27539,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -27616,7 +27619,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -27696,7 +27699,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -27776,7 +27779,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -27856,7 +27859,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27">
       <c r="A285" t="s">
         <v>26</v>
       </c>
@@ -27936,7 +27939,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27">
       <c r="A286" t="s">
         <v>26</v>
       </c>
@@ -28016,7 +28019,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -28096,7 +28099,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -28176,7 +28179,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27">
       <c r="A289" t="s">
         <v>26</v>
       </c>
@@ -28256,7 +28259,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -28336,7 +28339,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -28416,7 +28419,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -28496,7 +28499,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -28576,7 +28579,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -28656,7 +28659,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -28736,7 +28739,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27">
       <c r="A296" t="s">
         <v>26</v>
       </c>
@@ -28816,7 +28819,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -28896,7 +28899,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27">
       <c r="A298" t="s">
         <v>26</v>
       </c>
@@ -28976,7 +28979,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -29056,7 +29059,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27">
       <c r="A300" t="s">
         <v>26</v>
       </c>
@@ -29136,7 +29139,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27">
       <c r="A301" t="s">
         <v>26</v>
       </c>
@@ -29216,7 +29219,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27">
       <c r="A302" t="s">
         <v>26</v>
       </c>
@@ -29296,7 +29299,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27">
       <c r="A303" t="s">
         <v>26</v>
       </c>
@@ -29376,7 +29379,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27">
       <c r="A304" t="s">
         <v>26</v>
       </c>
@@ -29456,7 +29459,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27">
       <c r="A305" t="s">
         <v>26</v>
       </c>
@@ -29536,7 +29539,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27">
       <c r="A306" t="s">
         <v>26</v>
       </c>
@@ -29616,7 +29619,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27">
       <c r="A307" t="s">
         <v>26</v>
       </c>
@@ -29696,7 +29699,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27">
       <c r="A308" t="s">
         <v>26</v>
       </c>
@@ -29776,7 +29779,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27">
       <c r="A309" t="s">
         <v>26</v>
       </c>
@@ -29859,7 +29862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27">
       <c r="A310" t="s">
         <v>26</v>
       </c>
@@ -29939,7 +29942,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27">
       <c r="A311" t="s">
         <v>26</v>
       </c>
@@ -30019,7 +30022,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -30099,7 +30102,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27">
       <c r="A313" t="s">
         <v>26</v>
       </c>
@@ -30179,7 +30182,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27">
       <c r="A314" t="s">
         <v>26</v>
       </c>
@@ -30259,7 +30262,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27">
       <c r="A315" t="s">
         <v>26</v>
       </c>
@@ -30339,7 +30342,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27">
       <c r="A316" t="s">
         <v>26</v>
       </c>
@@ -30419,7 +30422,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27">
       <c r="A317" t="s">
         <v>26</v>
       </c>
@@ -30499,7 +30502,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27">
       <c r="A318" t="s">
         <v>26</v>
       </c>
@@ -30579,7 +30582,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27">
       <c r="A319" t="s">
         <v>26</v>
       </c>
@@ -30659,7 +30662,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27">
       <c r="A320" t="s">
         <v>26</v>
       </c>
@@ -30739,7 +30742,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27">
       <c r="A321" t="s">
         <v>26</v>
       </c>
@@ -30819,7 +30822,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27">
       <c r="A322" t="s">
         <v>26</v>
       </c>
@@ -30899,7 +30902,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27">
       <c r="A323" t="s">
         <v>26</v>
       </c>
@@ -30979,7 +30982,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27">
       <c r="A324" t="s">
         <v>26</v>
       </c>
@@ -31059,7 +31062,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27">
       <c r="A325" t="s">
         <v>26</v>
       </c>
@@ -31139,7 +31142,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27">
       <c r="A326" t="s">
         <v>26</v>
       </c>
@@ -31219,7 +31222,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27">
       <c r="A327" t="s">
         <v>26</v>
       </c>
@@ -31299,7 +31302,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27">
       <c r="A328" t="s">
         <v>26</v>
       </c>
@@ -31379,7 +31382,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27">
       <c r="A329" t="s">
         <v>26</v>
       </c>
@@ -31459,7 +31462,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27">
       <c r="A330" t="s">
         <v>26</v>
       </c>
@@ -31539,7 +31542,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27">
       <c r="A331" t="s">
         <v>26</v>
       </c>
@@ -31619,7 +31622,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27">
       <c r="A332" t="s">
         <v>26</v>
       </c>
@@ -31699,7 +31702,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27">
       <c r="A333" t="s">
         <v>26</v>
       </c>
@@ -31779,7 +31782,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27">
       <c r="A334" t="s">
         <v>26</v>
       </c>
@@ -31859,7 +31862,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27">
       <c r="A335" t="s">
         <v>26</v>
       </c>
@@ -31939,7 +31942,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27">
       <c r="A336" t="s">
         <v>26</v>
       </c>
@@ -32019,7 +32022,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27">
       <c r="A337" t="s">
         <v>26</v>
       </c>
@@ -32099,7 +32102,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27">
       <c r="A338" t="s">
         <v>26</v>
       </c>
@@ -32179,7 +32182,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27">
       <c r="A339" t="s">
         <v>26</v>
       </c>
@@ -32259,7 +32262,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -32339,7 +32342,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27">
       <c r="A341" t="s">
         <v>26</v>
       </c>
@@ -32419,7 +32422,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27">
       <c r="A342" t="s">
         <v>26</v>
       </c>
@@ -32499,7 +32502,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -32579,7 +32582,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27">
       <c r="A344" t="s">
         <v>26</v>
       </c>
@@ -32659,7 +32662,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27">
       <c r="A345" t="s">
         <v>26</v>
       </c>
@@ -32739,7 +32742,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27">
       <c r="A346" t="s">
         <v>26</v>
       </c>
@@ -32819,7 +32822,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27">
       <c r="A347" t="s">
         <v>26</v>
       </c>
@@ -32899,7 +32902,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27">
       <c r="A348" t="s">
         <v>26</v>
       </c>
@@ -32979,7 +32982,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -33059,7 +33062,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27">
       <c r="A350" t="s">
         <v>26</v>
       </c>
@@ -33139,7 +33142,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27">
       <c r="A351" t="s">
         <v>26</v>
       </c>
@@ -33219,7 +33222,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27">
       <c r="A352" t="s">
         <v>26</v>
       </c>
@@ -33299,7 +33302,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27">
       <c r="A353" t="s">
         <v>26</v>
       </c>
@@ -33379,7 +33382,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27">
       <c r="A354" t="s">
         <v>26</v>
       </c>
@@ -33459,7 +33462,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27">
       <c r="A355" t="s">
         <v>26</v>
       </c>
@@ -33539,7 +33542,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27">
       <c r="A356" t="s">
         <v>26</v>
       </c>
@@ -33619,7 +33622,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27">
       <c r="A357" t="s">
         <v>26</v>
       </c>
@@ -33699,7 +33702,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27">
       <c r="A358" t="s">
         <v>26</v>
       </c>
@@ -33779,7 +33782,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27">
       <c r="A359" t="s">
         <v>26</v>
       </c>
@@ -33859,7 +33862,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27">
       <c r="A360" t="s">
         <v>26</v>
       </c>
@@ -33939,7 +33942,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27">
       <c r="A361" t="s">
         <v>26</v>
       </c>
@@ -34019,7 +34022,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27">
       <c r="A362" t="s">
         <v>26</v>
       </c>
@@ -34099,7 +34102,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27">
       <c r="A363" t="s">
         <v>26</v>
       </c>
@@ -34179,7 +34182,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27">
       <c r="A364" t="s">
         <v>26</v>
       </c>
@@ -34259,7 +34262,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27">
       <c r="A365" t="s">
         <v>26</v>
       </c>
@@ -34339,7 +34342,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27">
       <c r="A366" t="s">
         <v>26</v>
       </c>
@@ -34419,7 +34422,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27">
       <c r="A367" t="s">
         <v>26</v>
       </c>
@@ -34499,7 +34502,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27">
       <c r="A368" t="s">
         <v>26</v>
       </c>
@@ -34579,7 +34582,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="369" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27">
       <c r="A369" t="s">
         <v>26</v>
       </c>
@@ -34659,7 +34662,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="370" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27">
       <c r="A370" t="s">
         <v>26</v>
       </c>
@@ -34739,7 +34742,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="371" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27">
       <c r="A371" t="s">
         <v>26</v>
       </c>
@@ -34819,7 +34822,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="372" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27">
       <c r="A372" t="s">
         <v>26</v>
       </c>
@@ -34899,7 +34902,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="373" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27">
       <c r="A373" t="s">
         <v>26</v>
       </c>
@@ -34980,6 +34983,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AB1" xr:uid="{762799D3-A3BB-4F91-B6AA-AB9272067784}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34988,28 +34992,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8692890-3472-4701-932A-F91611D4B5EA}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="9" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -35047,7 +35051,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -35085,7 +35089,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -35123,7 +35127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -35161,7 +35165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -35199,7 +35203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -35237,7 +35241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -35275,7 +35279,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -35313,7 +35317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -35348,7 +35352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -35383,7 +35387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -35418,7 +35422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
@@ -35453,7 +35457,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -35491,7 +35495,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -35529,7 +35533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -35567,7 +35571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -35602,7 +35606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -35637,7 +35641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -35675,7 +35679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
@@ -35713,7 +35717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -35751,7 +35755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -35789,7 +35793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -35827,7 +35831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -35865,7 +35869,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -35903,7 +35907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -35941,7 +35945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
@@ -35979,7 +35983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -36017,7 +36021,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -36052,7 +36056,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -36087,7 +36091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -36122,7 +36126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -36157,7 +36161,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -36192,7 +36196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
@@ -36227,7 +36231,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -36262,7 +36266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
